--- a/Crawling/crawling_data/facebook/facebook_20220322-153539.xlsx
+++ b/Crawling/crawling_data/facebook/facebook_20220322-153539.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Wantreez\Crawling\crawling_data\facebook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31D464-520C-4CEE-8439-E3D81E055899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -208,102 +214,102 @@
     <t>Introduction of Gyeonggi Lifestyle Apps in Various Areas</t>
   </si>
   <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0XVTu753FkXYdw8s9cB8pAqJSJxZ1ZopeS2utsBFAK72UQuj6mZSZWea3QnSnhftbl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02ctTbKTa5BqF2Z3B7ZZJurVk9KcLeNx4g5kWuQj9ktAWmVXNPvqRiiT97erzUPoChl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0mz477mbTa1RfXzoeJZXEKeBMRNPDrYN4hKJhM4UvoPyAe5nV88eXPCZei8uXh3aWl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0XUGDtqjjY44qmgUpET8kq8tgKZgxSVisZcJswrpdLUZHYdfHhGaB4YyfbCattP9Ll</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0dzg9srFiVrTYoKdH65cipdZoZuiksM6DooMJHfwWJXUK73fspWLeqS2w7iGmcq8pl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0vhhQwMf5mEAwSAJrgAdDxWq8GfAatLJuE6Nq1JLGiJMVCo7c8UNb9Ea1B8o4ZwbBl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02MiLQjPoTJ3wwWon994aMRxttm5U4Tvhdw8VUoGPwbuPqtX5sszctXyNADzDzBY6kl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0fhHvYrnCpMPvzxmqdD2UvEHbTmi9LLgu8K2ur4FW4dFovrnWf4Ay9bfFUVHmToJNl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0Kq1x1kDDRs246vyBjJY8qKewyauwBvKpbExR8oezMzjedF1m1YVmdi2hWawZDdHal</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid026ocJFSArd7BBK3FqCydjwBco2nvLrQCFPc3Su9mk5rRBzSj6QdMc7nWpmN9oarLil</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02TWvNY1trXfxtPM3axG4mcGUeWHZRMjcxqyaYLDFjohcX77XSwd3YJST5E9nMdezHl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02gNps6EjZHw5f9tZuNLWzRgeApxh8aqjPjuypabPKkjwGDdpE8rjGWkpQR39NrdRUl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0sYDxPe4cG7ZB4sZaCMZykBoPwGE3W3wDQS4bKT3qxkevTrzikeeBUYDpnWeH5sv9l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid022T1KpfU9JobtAYyArKqVP751N8EmVvT6c6mYDSyb8nmWq9YmkjzHGAJLZWkb4uXcl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid024Mdt3CewajtMY2YKciMLNejpr35cKP2GEfJehdAmk2WnYB96f2YHykZ6bPDiELg5l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02qSzx1TQcLgiwxxcq7HTpEyma7giJMAMsU1CnLHyEaNrxyEXq2tK4HZQ3ZQPzK3Sml</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0FXgydpWe82DpQ3UVnAsZqPn54Vd4y1vH8X9fCKfWgKUtXREkMx5NpRaNiisH3pYnl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid021QPsoREKuATa7QAFLaqtcnmdwFVCsXaCr9CUYYsi4uvojV97ejuWd5JAQhcmpfMcl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02CM1oqtMapN7T9f6DsSvMNywaKAWsmMcZqi5VwGEVBnXCDRGFinC9TQzvvjtFgFLWl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02GGVvE3U8cRtL4S6XWnQtQ2B5BWaiKxrvx6ZNmWAkkLsbjGcq4WTBrhuhCJHMo7jfl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02Ry3K3z7Ee9PufNEkpF7qc8MBFxTdv715wxPDkd9V8MF2Bc1sMT2ZNo9cqYdBgWdvl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0zyPKhmkqTrikxRgyfH6NikZD7Erh7JUkqqUbKbcrVCYM3Az18NzCA4M4k8KsTURrl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid0gtRTs9XYUQym68nxoRMDsQpzieoE3iwqFoF2CDrEpyJvEtQU3iaxHg4kZUQBagwyl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid033RuNo2nZZ6zcaExKsMh8y8Ro3oZ7y4KQprMEKqeisD8aTA6wYrk9gH51Z4oUD4Vil</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid031J4QhCv8nMdJBwpimbpD9gUvDQFBmjBsRd8JxY6dpnFMGpP9MTRNSV97J65iZ5h8l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid025qUYvVsoHRG5ytMosjP1HTNWwmUhiv3UT2nttofGJ4cRhwb23YDgKHFATDB9zjzCl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02ZkBqRCvDjivrmjh3VJxcVKzGYMZhk8ezVencXab3HVf8RNCfDS4BTifEQsRFFWmtl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid02NLbLPSjXfxepkyD6VHk5u52q8m9KPYzsDmbF68ZDJwoZEZgcsmhj5vfTnoZFn4Y1l</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/GyeonggiKorea.en/posts/pfbid025VVNSB7wYqfrYoi6ahxceqdZrQ32QmpPqVZ1TcDUYhiFLtesoVQiTjNjQ5AWMPFbl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/291427883012892</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/293978592757821</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/295098979312449</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/295613609260986</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/298803512275329</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/299420042213676</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/301159845373029</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/302820295206984</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/305278478294499</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/306608341494846</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/306616221494058</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/312037957618551</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/312159360939744</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/314362554052758</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/315564663932547</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/318223103666703</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/320568020098878</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/323141739841506</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/323737423115271</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/326880142800999</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/328140656008281</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/329500309205649</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/331963268959353</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/333152298840450</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/333759512113062</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/336384715183875</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/337624815059865</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GyeonggiKorea.en/posts/338402151648798</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +317,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,6 +327,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,16 +383,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +474,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +526,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,14 +719,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -706,10 +765,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -726,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -746,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -766,10 +825,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -786,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -806,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -826,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -846,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -866,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -886,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -906,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -926,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -946,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -966,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -986,10 +1045,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1006,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1026,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1046,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1066,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1086,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1106,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1126,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1146,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1166,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1186,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1206,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1226,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1246,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1266,40 +1325,41 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{4462CE56-1187-4616-84A6-68734AC9A634}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{1560E170-FA1B-48FB-BBA9-840322E104C9}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{3DED0C46-E6F2-4533-ABD9-BF6524E115B8}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{B794E25B-6F69-4971-908C-9D68ED96FD12}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{923BC267-64F4-4437-8B1C-2E33AA0747C4}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{1777116C-8BA7-4DD8-924C-132745805136}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{FC1C8FA7-1AE8-45FB-B37F-9B3D6584C5C7}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{616FDEE3-4FA7-40DD-90B8-898CDB96A962}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{886DB67C-AC78-408F-B291-854950445F00}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{9E69D388-DD7A-4853-97BF-4D348788896D}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{F5F2F509-F445-41F6-8061-3FB804C276EA}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{C125FA43-851A-461A-859F-2283194213A5}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{036C422C-28B4-4FF4-B8E5-399848815E45}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{610D32AB-C632-45F3-8D89-7BA39114A697}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{7DB36C1B-7B05-41B7-809C-51D5808B1E03}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{2942067A-AA34-4A13-ACF3-35EEB6ABF9BF}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{831314EF-C652-4C01-A0B3-942FC06CD07B}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{A36C1ABB-D34B-4F96-B1DA-6E76FEC0838B}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{805AB9E2-E5A2-4A22-8566-A7E2DDF4FCF8}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{D8E04D24-98D7-4454-AA94-69DA2D99702D}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{80D7E526-4A2B-4D52-9742-8C3E8F66EE2D}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{C3B31014-6C82-4587-9BF3-96683A59BC50}"/>
+    <hyperlink ref="F24" r:id="rId24" xr:uid="{0A449881-9704-4994-BD66-315E111DE2D6}"/>
+    <hyperlink ref="F25" r:id="rId25" xr:uid="{8CA8095F-A1FC-4577-8954-9B60A02EF4ED}"/>
+    <hyperlink ref="F26" r:id="rId26" xr:uid="{F001040F-8298-43DE-98DC-D4E8E342E90D}"/>
+    <hyperlink ref="F27" r:id="rId27" xr:uid="{B48E7EFE-B350-4977-A8E6-6556B85994E2}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{14B1C956-730E-4133-B28B-612852A3C38C}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{D4F6CDFD-6011-47FE-8AE5-89E5A35B83A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
